--- a/IPL/Lucknow Super Giants/Jitesh Sharma †.xlsx
+++ b/IPL/Lucknow Super Giants/Jitesh Sharma †.xlsx
@@ -445,28 +445,31 @@
         <v>Jitesh Sharma †</v>
       </c>
       <c r="C2" t="str">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D2" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="str">
-        <v>40.00</v>
+        <v>240.00</v>
       </c>
       <c r="H2" t="str">
         <v>Punjab Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Mohali</v>
       </c>
       <c r="J2" t="str">
-        <v>April 29 2022</v>
+        <v>April 28 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -480,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -489,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>40.00</v>
+        <v>50.00</v>
       </c>
       <c r="H3" t="str">
         <v>Punjab Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Lucknow</v>
       </c>
       <c r="J3" t="str">
-        <v>April 29 2022</v>
+        <v>April 15 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Giants won by 20 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
